--- a/02_MasterWifoMannheim/99_Backup/Course93.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course93.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD32051265F592811591020B546DFFA46" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C582646-E7F2-4FD7-B374-FD49F3510723}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 553 System Software</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This module introduces concepts and architectures of system software. introduction (IS management in local and distributed settings are discussed.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>System software enables application programmers to program on higher layers of abstractions. Students will be able to choose and use platforms. Core concepts being present in many of today’s system platform are discussed and practiced in exercises:  Process models, Scheduling  Memory management and organization  Communication models (Remote Procedure Call, Publish/Subscribe)  Middleware Architectures</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written (60 min.) or oral exam</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Christian Becker</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>IS 554, Software Development Fundamentals (SDF), Foundations of Programming Languages (FPL)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,144 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="194" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 553 System Software</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This module introduces concepts and architectures of system software. introduction (IS management in local and distributed settings are discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>System software enables application programmers to program on higher layers of abstractions. Students will be able to choose and use platforms. Core concepts being present in many of today’s system platform are discussed and practiced in exercises:  Process models, Scheduling  Memory management and organization  Communication models (Remote Procedure Call, Publish/Subscribe)  Middleware Architectures</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 554, Software Development Fundamentals (SDF), Foundations of Programming Languages (FPL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written (60 min.) or oral exam</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Christian Becker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
